--- a/TestData/Register page/tc31.xlsx
+++ b/TestData/Register page/tc31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohni\PycharmProjects\cchc_automation\TestData\Register page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F23622-6B77-44D9-9A7B-0F2F5074C6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF1E518-41A4-42CD-99B7-82AE803C160E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,16 +54,16 @@
     <t>New_email</t>
   </si>
   <si>
-    <t>Anu</t>
-  </si>
-  <si>
-    <t>Bhopal</t>
-  </si>
-  <si>
-    <t>anu1@gmail.com</t>
-  </si>
-  <si>
-    <t>Anu@1234</t>
+    <t>Sandeep</t>
+  </si>
+  <si>
+    <t>sandeep@gmail.com</t>
+  </si>
+  <si>
+    <t>Vadodara</t>
+  </si>
+  <si>
+    <t>Sandeep@123</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,13 +453,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>7817008251</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2">
-        <v>9340123456</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="3">
         <v>326598741485</v>
@@ -476,9 +476,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{51D250C3-E542-465C-ADB8-B8F4F37593C6}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{BBBED9DA-7CAC-44B0-8131-D6D4E679294B}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{9D919682-C74F-4F06-BF34-E3CEA5F3446E}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A0062321-F6EE-4B55-BBE8-A2BE31BEE076}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{04464DEA-C7DC-40E5-BC31-EB6FAC80B826}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{AA9FB8DC-4C81-4940-8B04-B83A0B18CD5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
